--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_4_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_4_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1156 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_20</t>
+          <t>model_4_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9319833167727257</v>
+        <v>0.9888756519660623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7242720817065305</v>
+        <v>0.7500227157135129</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9717576727268281</v>
+        <v>0.8186458940059108</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3288275847227311</v>
+        <v>0.987299603597538</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8434003520204939</v>
+        <v>0.9622104169394758</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4548278739288114</v>
+        <v>0.07438856652585413</v>
       </c>
       <c r="H2" t="n">
-        <v>1.843793859238753</v>
+        <v>1.671599251063295</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2999957890325499</v>
+        <v>0.3318417697580133</v>
       </c>
       <c r="J2" t="n">
-        <v>2.537564684713361</v>
+        <v>0.1171768357961328</v>
       </c>
       <c r="K2" t="n">
-        <v>1.418780236872955</v>
+        <v>0.224509302777073</v>
       </c>
       <c r="L2" t="n">
-        <v>2.708475844876674</v>
+        <v>0.1956720487976539</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6744092777600346</v>
+        <v>0.2727426745594722</v>
       </c>
       <c r="N2" t="n">
-        <v>1.013952140149184</v>
+        <v>1.015704961930265</v>
       </c>
       <c r="O2" t="n">
-        <v>0.703120276933943</v>
+        <v>0.2843538948706388</v>
       </c>
       <c r="P2" t="n">
-        <v>283.5756724613238</v>
+        <v>87.19690604936036</v>
       </c>
       <c r="Q2" t="n">
-        <v>455.4371637677401</v>
+        <v>137.1708148689566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_19</t>
+          <t>model_4_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.932001949171227</v>
+        <v>0.9889842195122318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7241686341466922</v>
+        <v>0.7500014067387081</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9719143906043136</v>
+        <v>0.8213647332983726</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3289102282441559</v>
+        <v>0.9874383403302028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.843509467090818</v>
+        <v>0.9627368452061659</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4547032789942395</v>
+        <v>0.07366257484471091</v>
       </c>
       <c r="H3" t="n">
-        <v>1.844485613547724</v>
+        <v>1.671741744275934</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2983310996159505</v>
+        <v>0.3268668372217323</v>
       </c>
       <c r="J3" t="n">
-        <v>2.537252226577993</v>
+        <v>0.1158968181630449</v>
       </c>
       <c r="K3" t="n">
-        <v>1.417791663096972</v>
+        <v>0.2213817730838387</v>
       </c>
       <c r="L3" t="n">
-        <v>2.706737042146554</v>
+        <v>0.1951688423403136</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6743168980488621</v>
+        <v>0.2714085017915078</v>
       </c>
       <c r="N3" t="n">
-        <v>1.013948318118723</v>
+        <v>1.015551690100379</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7030239644272135</v>
+        <v>0.2829629236058239</v>
       </c>
       <c r="P3" t="n">
-        <v>283.5762204136834</v>
+        <v>87.21652082553921</v>
       </c>
       <c r="Q3" t="n">
-        <v>455.4377117200997</v>
+        <v>137.1904296451354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_18</t>
+          <t>model_4_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.932018819152157</v>
+        <v>0.9890950020738816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.724049919050461</v>
+        <v>0.749975473036801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9720840638438231</v>
+        <v>0.8242008719197944</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3290113406193668</v>
+        <v>0.9875840022150891</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8436300957427827</v>
+        <v>0.9632866818010912</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4545904693540813</v>
+        <v>0.07292177134485263</v>
       </c>
       <c r="H4" t="n">
-        <v>1.845279461942855</v>
+        <v>1.67191516306</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2965287956885149</v>
+        <v>0.321677270356109</v>
       </c>
       <c r="J4" t="n">
-        <v>2.536869941509831</v>
+        <v>0.1145529074514258</v>
       </c>
       <c r="K4" t="n">
-        <v>1.416698777195781</v>
+        <v>0.2181151736516541</v>
       </c>
       <c r="L4" t="n">
-        <v>2.704780804629333</v>
+        <v>0.1946379261608232</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6742332455123237</v>
+        <v>0.2700403142955745</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013944857609814</v>
+        <v>1.015395291189814</v>
       </c>
       <c r="O4" t="n">
-        <v>0.70293675062901</v>
+        <v>0.2815364895356501</v>
       </c>
       <c r="P4" t="n">
-        <v>283.5767166653774</v>
+        <v>87.23673607569556</v>
       </c>
       <c r="Q4" t="n">
-        <v>455.4382079717936</v>
+        <v>137.2106448952918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_17</t>
+          <t>model_4_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9320325364175396</v>
+        <v>0.9892076973398597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7239133363093515</v>
+        <v>0.7499443070012086</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9722672142966354</v>
+        <v>0.8271567565985798</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3291313075987772</v>
+        <v>0.9877368583835617</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8437624285538922</v>
+        <v>0.9638605722837501</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4544987419373061</v>
+        <v>0.07216817758234249</v>
       </c>
       <c r="H5" t="n">
-        <v>1.84619279136156</v>
+        <v>1.672123570483513</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2945833340389967</v>
+        <v>0.3162685921371514</v>
       </c>
       <c r="J5" t="n">
-        <v>2.536416371066001</v>
+        <v>0.1131426205921848</v>
       </c>
       <c r="K5" t="n">
-        <v>1.415499852552499</v>
+        <v>0.2147056691877975</v>
       </c>
       <c r="L5" t="n">
-        <v>2.70257282646764</v>
+        <v>0.1940792106029195</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6741652185757628</v>
+        <v>0.2686413549369168</v>
       </c>
       <c r="N5" t="n">
-        <v>1.013942043811787</v>
+        <v>1.015236191990786</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7028658276449247</v>
+        <v>0.2800779735808492</v>
       </c>
       <c r="P5" t="n">
-        <v>283.5771202667663</v>
+        <v>87.25751216790198</v>
       </c>
       <c r="Q5" t="n">
-        <v>455.4386115731826</v>
+        <v>137.2314209874982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_16</t>
+          <t>model_4_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9320415925863897</v>
+        <v>0.9893219761650951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7237559132157767</v>
+        <v>0.7499072275194911</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9724642667810073</v>
+        <v>0.8302359182059662</v>
       </c>
       <c r="E6" t="n">
-        <v>0.329273895104389</v>
+        <v>0.9878971402893434</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8439077212111745</v>
+        <v>0.9644591983382435</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4544381832945047</v>
+        <v>0.07140399455178797</v>
       </c>
       <c r="H6" t="n">
-        <v>1.847245480313161</v>
+        <v>1.672371521148492</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2924902021607994</v>
+        <v>0.3106343417761514</v>
       </c>
       <c r="J6" t="n">
-        <v>2.535877277070947</v>
+        <v>0.1116638221389948</v>
       </c>
       <c r="K6" t="n">
-        <v>1.414183512743473</v>
+        <v>0.2111492097819544</v>
       </c>
       <c r="L6" t="n">
-        <v>2.700086914045575</v>
+        <v>0.1934837084895286</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6741203032801376</v>
+        <v>0.2672152588303819</v>
       </c>
       <c r="N6" t="n">
-        <v>1.013940186136125</v>
+        <v>1.015074857178689</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7028190002121771</v>
+        <v>0.2785911656106332</v>
       </c>
       <c r="P6" t="n">
-        <v>283.577386769936</v>
+        <v>87.27880293019609</v>
       </c>
       <c r="Q6" t="n">
-        <v>455.4388780763522</v>
+        <v>137.2527117497923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_15</t>
+          <t>model_4_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9320442277509714</v>
+        <v>0.9894374567355385</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7235740483261037</v>
+        <v>0.7498634576674659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9726750572859189</v>
+        <v>0.8334398419985944</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3294464735438652</v>
+        <v>0.988065295138751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8440672750392806</v>
+        <v>0.9650831938382319</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4544205619368134</v>
+        <v>0.07063177544549358</v>
       </c>
       <c r="H7" t="n">
-        <v>1.848461611667815</v>
+        <v>1.672664210350528</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2902511422125917</v>
+        <v>0.3047718015502896</v>
       </c>
       <c r="J7" t="n">
-        <v>2.535224793531115</v>
+        <v>0.1101123860614925</v>
       </c>
       <c r="K7" t="n">
-        <v>1.412737967871853</v>
+        <v>0.2074420295673942</v>
       </c>
       <c r="L7" t="n">
-        <v>2.697273240695673</v>
+        <v>0.1928530948476678</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6741072332624932</v>
+        <v>0.2657663926185807</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013939645589544</v>
+        <v>1.014911825785122</v>
       </c>
       <c r="O7" t="n">
-        <v>0.702805373776823</v>
+        <v>0.2770806181646291</v>
       </c>
       <c r="P7" t="n">
-        <v>283.5774643237155</v>
+        <v>87.30055031721128</v>
       </c>
       <c r="Q7" t="n">
-        <v>455.4389556301318</v>
+        <v>137.2744591368075</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_14</t>
+          <t>model_4_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9320377630227582</v>
+        <v>0.9895536831039257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7233634284723236</v>
+        <v>0.7498120800655461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9728993372947636</v>
+        <v>0.8367729713158154</v>
       </c>
       <c r="E8" t="n">
-        <v>0.329652900409361</v>
+        <v>0.9882416046563779</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8442418243616892</v>
+        <v>0.965733393017041</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4544637916041423</v>
+        <v>0.06985456918491569</v>
       </c>
       <c r="H8" t="n">
-        <v>1.849870027599858</v>
+        <v>1.673007772611137</v>
       </c>
       <c r="I8" t="n">
-        <v>0.287868793988707</v>
+        <v>0.2986728410365697</v>
       </c>
       <c r="J8" t="n">
-        <v>2.534444336063056</v>
+        <v>0.1084857131025086</v>
       </c>
       <c r="K8" t="n">
-        <v>1.411156565025882</v>
+        <v>0.2035791723332498</v>
       </c>
       <c r="L8" t="n">
-        <v>2.694099533307837</v>
+        <v>0.1921878226184327</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6741392968846589</v>
+        <v>0.2643001498011601</v>
       </c>
       <c r="N8" t="n">
-        <v>1.013940971687639</v>
+        <v>1.01474774150034</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7028388024137651</v>
+        <v>0.27555195435493</v>
       </c>
       <c r="P8" t="n">
-        <v>283.5772740699513</v>
+        <v>87.32267956234996</v>
       </c>
       <c r="Q8" t="n">
-        <v>455.4387653763676</v>
+        <v>137.2965883819462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_13</t>
+          <t>model_4_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9320191165925886</v>
+        <v>0.9896700688859603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7231189798503401</v>
+        <v>0.7497521825826217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9731363547543944</v>
+        <v>0.8402360573100091</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3299013516320866</v>
+        <v>0.9884263978023243</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8444326092172447</v>
+        <v>0.9664101514319653</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4545884803685458</v>
+        <v>0.0690762969245422</v>
       </c>
       <c r="H9" t="n">
-        <v>1.851504656660644</v>
+        <v>1.673408307355255</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2853511459518197</v>
+        <v>0.2923360857762567</v>
       </c>
       <c r="J9" t="n">
-        <v>2.53350499315457</v>
+        <v>0.1067807681990077</v>
       </c>
       <c r="K9" t="n">
-        <v>1.409428069553195</v>
+        <v>0.1995585257005567</v>
       </c>
       <c r="L9" t="n">
-        <v>2.690504307047608</v>
+        <v>0.1914820981828904</v>
       </c>
       <c r="M9" t="n">
-        <v>0.674231770512593</v>
+        <v>0.2628236993205563</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013944796596392</v>
+        <v>1.014583432160997</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7029352128354871</v>
+        <v>0.274012648320693</v>
       </c>
       <c r="P9" t="n">
-        <v>283.5767254160663</v>
+        <v>87.34508726549863</v>
       </c>
       <c r="Q9" t="n">
-        <v>455.4382167224825</v>
+        <v>137.3189960850949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_12</t>
+          <t>model_4_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9319844374440922</v>
+        <v>0.989785972011502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7228345002754385</v>
+        <v>0.7496826133954724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9733849307885296</v>
+        <v>0.8438309292862851</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3302024627136877</v>
+        <v>0.9886200889117557</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8446411825314458</v>
+        <v>0.9671141644359176</v>
       </c>
       <c r="G10" t="n">
-        <v>0.454820379994224</v>
+        <v>0.06830125219036087</v>
       </c>
       <c r="H10" t="n">
-        <v>1.853406972887919</v>
+        <v>1.673873516830059</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2827107203674237</v>
+        <v>0.2857581885065923</v>
       </c>
       <c r="J10" t="n">
-        <v>2.532366554164149</v>
+        <v>0.1049937285975814</v>
       </c>
       <c r="K10" t="n">
-        <v>1.407538412073465</v>
+        <v>0.1953759585520869</v>
       </c>
       <c r="L10" t="n">
-        <v>2.686430205065049</v>
+        <v>0.1907394862581427</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6744037218122569</v>
+        <v>0.2613450825830876</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013951910267878</v>
+        <v>1.014419804219056</v>
       </c>
       <c r="O10" t="n">
-        <v>0.703114484457966</v>
+        <v>0.2724710838075516</v>
       </c>
       <c r="P10" t="n">
-        <v>283.5757054144331</v>
+        <v>87.36765435778641</v>
       </c>
       <c r="Q10" t="n">
-        <v>455.4371967208493</v>
+        <v>137.3415631773827</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_11</t>
+          <t>model_4_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9319284016931925</v>
+        <v>0.9899007029439448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7225027768840155</v>
+        <v>0.7496021890252119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9736430373314956</v>
+        <v>0.847559442237605</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3305642769110746</v>
+        <v>0.9888229989398141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8448679442335142</v>
+        <v>0.9678458908856341</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4551950913185115</v>
+        <v>0.06753404591682761</v>
       </c>
       <c r="H11" t="n">
-        <v>1.85562520873381</v>
+        <v>1.674411314964311</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2799690597647901</v>
+        <v>0.2789357549611836</v>
       </c>
       <c r="J11" t="n">
-        <v>2.530998609193798</v>
+        <v>0.103121633090816</v>
       </c>
       <c r="K11" t="n">
-        <v>1.405483969260053</v>
+        <v>0.1910287448030944</v>
       </c>
       <c r="L11" t="n">
-        <v>2.681808114688996</v>
+        <v>0.1899473490090867</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6746814739701332</v>
+        <v>0.2598731342729133</v>
       </c>
       <c r="N11" t="n">
-        <v>1.013963404780884</v>
+        <v>1.01425783113796</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7034040611002293</v>
+        <v>0.2709364716104601</v>
       </c>
       <c r="P11" t="n">
-        <v>283.5740583595982</v>
+        <v>87.39024684861896</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.4355496660145</v>
+        <v>137.3641556682152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_10</t>
+          <t>model_4_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.931844498303931</v>
+        <v>0.9900132993343795</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7221150423576677</v>
+        <v>0.7495095565716151</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9739076958982357</v>
+        <v>0.8514213601271894</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3309990657560911</v>
+        <v>0.9890354985437539</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8451138279903607</v>
+        <v>0.9686056244974453</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4557561536688419</v>
+        <v>0.06678111333553199</v>
       </c>
       <c r="H12" t="n">
-        <v>1.858217991296852</v>
+        <v>1.675030748608046</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2771578022226816</v>
+        <v>0.2718692170401642</v>
       </c>
       <c r="J12" t="n">
-        <v>2.529354762108746</v>
+        <v>0.1011610619079529</v>
       </c>
       <c r="K12" t="n">
-        <v>1.403256282165714</v>
+        <v>0.1865151394740585</v>
       </c>
       <c r="L12" t="n">
-        <v>2.676566045628275</v>
+        <v>0.1891166793774454</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6750971438754885</v>
+        <v>0.2584204197340682</v>
       </c>
       <c r="N12" t="n">
-        <v>1.013980615732527</v>
+        <v>1.014098871527935</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7038374269340109</v>
+        <v>0.2694219120061628</v>
       </c>
       <c r="P12" t="n">
-        <v>283.5715947264483</v>
+        <v>87.41266994582899</v>
       </c>
       <c r="Q12" t="n">
-        <v>455.4330860328645</v>
+        <v>137.3865787654252</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_9</t>
+          <t>model_4_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9317250668959162</v>
+        <v>0.990122793071566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7216609444308195</v>
+        <v>0.7494032018788988</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9741748113300458</v>
+        <v>0.8554171135867707</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3315270663255754</v>
+        <v>0.9892578770431404</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8453805862201483</v>
+        <v>0.9693936472467416</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4565547920441685</v>
+        <v>0.06604892821079375</v>
       </c>
       <c r="H13" t="n">
-        <v>1.861254546224614</v>
+        <v>1.675741942927958</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2743204473562225</v>
+        <v>0.2645577867735268</v>
       </c>
       <c r="J13" t="n">
-        <v>2.527358500688975</v>
+        <v>0.09910934571883175</v>
       </c>
       <c r="K13" t="n">
-        <v>1.400839474022599</v>
+        <v>0.181833467338813</v>
       </c>
       <c r="L13" t="n">
-        <v>2.670602907148363</v>
+        <v>0.1882363075627179</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6756883838310146</v>
+        <v>0.2569998603322456</v>
       </c>
       <c r="N13" t="n">
-        <v>1.014005114482889</v>
+        <v>1.01394429213426</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7044538371984792</v>
+        <v>0.2679408764496412</v>
       </c>
       <c r="P13" t="n">
-        <v>283.568093119532</v>
+        <v>87.43471895016545</v>
       </c>
       <c r="Q13" t="n">
-        <v>455.4295844259482</v>
+        <v>137.4086277697617</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_8</t>
+          <t>model_4_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9315595944961527</v>
+        <v>0.9902280264415699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7211278581567327</v>
+        <v>0.7492814299683674</v>
       </c>
       <c r="D14" t="n">
-        <v>0.974438889160405</v>
+        <v>0.8595455434107955</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3321624397014978</v>
+        <v>0.9894907250687859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8456679774389769</v>
+        <v>0.9702102133858037</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4576613067433176</v>
+        <v>0.06534523218102244</v>
       </c>
       <c r="H14" t="n">
-        <v>1.864819296594069</v>
+        <v>1.67655623225439</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2715153585149828</v>
+        <v>0.2570035852757632</v>
       </c>
       <c r="J14" t="n">
-        <v>2.524956284799811</v>
+        <v>0.09696103522505627</v>
       </c>
       <c r="K14" t="n">
-        <v>1.398235732655452</v>
+        <v>0.1769822178752088</v>
       </c>
       <c r="L14" t="n">
-        <v>2.663821019241061</v>
+        <v>0.1873051031852152</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6765066937904736</v>
+        <v>0.2556271350639882</v>
       </c>
       <c r="N14" t="n">
-        <v>1.014039057539251</v>
+        <v>1.013795727376607</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7053069843070475</v>
+        <v>0.266509711424781</v>
       </c>
       <c r="P14" t="n">
-        <v>283.5632517467277</v>
+        <v>87.45614159956557</v>
       </c>
       <c r="Q14" t="n">
-        <v>455.424743053144</v>
+        <v>137.4300504191618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_7</t>
+          <t>model_4_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9313355898576207</v>
+        <v>0.9903276194213908</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7205008073201797</v>
+        <v>0.7491423459055526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9746922995380104</v>
+        <v>0.8638045081418901</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3329308888712349</v>
+        <v>0.9897341078607914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8459768624627575</v>
+        <v>0.9710550322749785</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4591592267926277</v>
+        <v>0.06467925346637685</v>
       </c>
       <c r="H15" t="n">
-        <v>1.869012388425403</v>
+        <v>1.677486288022856</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2688235815433669</v>
+        <v>0.2492105309858896</v>
       </c>
       <c r="J15" t="n">
-        <v>2.52205093673911</v>
+        <v>0.09471552850615493</v>
       </c>
       <c r="K15" t="n">
-        <v>1.395437259141238</v>
+        <v>0.1719631177841136</v>
       </c>
       <c r="L15" t="n">
-        <v>2.656105746949162</v>
+        <v>0.1863235486575525</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6776128885968947</v>
+        <v>0.2543211620498319</v>
       </c>
       <c r="N15" t="n">
-        <v>1.014085007208693</v>
+        <v>1.013655125522742</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7064602721165169</v>
+        <v>0.2651481404356753</v>
       </c>
       <c r="P15" t="n">
-        <v>283.5567164594938</v>
+        <v>87.47662957258886</v>
       </c>
       <c r="Q15" t="n">
-        <v>455.4182077659101</v>
+        <v>137.4505383921851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_6</t>
+          <t>model_4_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9310372093058241</v>
+        <v>0.9904200805297881</v>
       </c>
       <c r="C16" t="n">
-        <v>0.719761790625432</v>
+        <v>0.7489838416460539</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9749254456535147</v>
+        <v>0.8681907554674498</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3338593748435444</v>
+        <v>0.9899885905291763</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8463072704726355</v>
+        <v>0.9719281311357969</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4611544989164069</v>
+        <v>0.06406096560878009</v>
       </c>
       <c r="H16" t="n">
-        <v>1.87395419646604</v>
+        <v>1.678546206735969</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2663470557172885</v>
+        <v>0.2411845749859878</v>
       </c>
       <c r="J16" t="n">
-        <v>2.518540522484955</v>
+        <v>0.09236761172455608</v>
       </c>
       <c r="K16" t="n">
-        <v>1.392443789101122</v>
+        <v>0.1667760053414106</v>
       </c>
       <c r="L16" t="n">
-        <v>2.647313927835172</v>
+        <v>0.1852860548800893</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6790835728512411</v>
+        <v>0.2531026779960657</v>
       </c>
       <c r="N16" t="n">
-        <v>1.014146213475728</v>
+        <v>1.01352459219324</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7079935664443069</v>
+        <v>0.2638777829931305</v>
       </c>
       <c r="P16" t="n">
-        <v>283.5480443069692</v>
+        <v>87.49584012281791</v>
       </c>
       <c r="Q16" t="n">
-        <v>455.4095356133855</v>
+        <v>137.4697489424141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_5</t>
+          <t>model_4_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9306447881443665</v>
+        <v>0.9905036209528425</v>
       </c>
       <c r="C17" t="n">
-        <v>0.71888910813911</v>
+        <v>0.7488035785014948</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9751255050988973</v>
+        <v>0.8727002889936002</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3349832117444841</v>
+        <v>0.9902544124330261</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8466590191422279</v>
+        <v>0.9728289994285575</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4637786210300081</v>
+        <v>0.06350233041514711</v>
       </c>
       <c r="H17" t="n">
-        <v>1.879789828270408</v>
+        <v>1.679751627213671</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2642219832829082</v>
+        <v>0.2329330298781555</v>
       </c>
       <c r="J17" t="n">
-        <v>2.514291526599115</v>
+        <v>0.0899150764972</v>
       </c>
       <c r="K17" t="n">
-        <v>1.389256974397495</v>
+        <v>0.1614239136822432</v>
       </c>
       <c r="L17" t="n">
-        <v>2.637296945443702</v>
+        <v>0.1841883707351047</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6810129374909174</v>
+        <v>0.2519966873098675</v>
       </c>
       <c r="N17" t="n">
-        <v>1.014226710124233</v>
+        <v>1.013406652772458</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7100050681310295</v>
+        <v>0.2627247079937045</v>
       </c>
       <c r="P17" t="n">
-        <v>283.5366959009162</v>
+        <v>87.51335734861152</v>
       </c>
       <c r="Q17" t="n">
-        <v>455.3981872073325</v>
+        <v>137.4872661682078</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_4</t>
+          <t>model_4_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9301334376002088</v>
+        <v>0.9905762411138046</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7178567924631838</v>
+        <v>0.7485989257822085</v>
       </c>
       <c r="D18" t="n">
-        <v>0.975276469530886</v>
+        <v>0.8773262286942513</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3363390131872025</v>
+        <v>0.9905320337381047</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8470304845082746</v>
+        <v>0.9737569237804042</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4671980244733428</v>
+        <v>0.06301671906440838</v>
       </c>
       <c r="H18" t="n">
-        <v>1.886692927948704</v>
+        <v>1.681120140889877</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2626184081436412</v>
+        <v>0.2244684847351415</v>
       </c>
       <c r="J18" t="n">
-        <v>2.509165520550276</v>
+        <v>0.08735367722682791</v>
       </c>
       <c r="K18" t="n">
-        <v>1.385891528007099</v>
+        <v>0.1559110809809847</v>
       </c>
       <c r="L18" t="n">
-        <v>2.62587350137023</v>
+        <v>0.1830374114799567</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6835188545119606</v>
+        <v>0.2510313109243713</v>
       </c>
       <c r="N18" t="n">
-        <v>1.014331602543547</v>
+        <v>1.013304130192276</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7126176672276221</v>
+        <v>0.2617182335368732</v>
       </c>
       <c r="P18" t="n">
-        <v>283.5220041518319</v>
+        <v>87.52871041164687</v>
       </c>
       <c r="Q18" t="n">
-        <v>455.3834954582482</v>
+        <v>137.5026192312431</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_3</t>
+          <t>model_4_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9294727247955969</v>
+        <v>0.9906356942493799</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7166334061370958</v>
+        <v>0.7483669782244367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9753575002890336</v>
+        <v>0.8820620752710538</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3379789020952941</v>
+        <v>0.990821583614351</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8474201090922737</v>
+        <v>0.974711044176105</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4716162140400849</v>
+        <v>0.06261915567305935</v>
       </c>
       <c r="H19" t="n">
-        <v>1.89487371794443</v>
+        <v>1.682671175276718</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2617576828219896</v>
+        <v>0.2158028319740189</v>
       </c>
       <c r="J19" t="n">
-        <v>2.502965438298225</v>
+        <v>0.08468222216128954</v>
       </c>
       <c r="K19" t="n">
-        <v>1.382361560560108</v>
+        <v>0.1502426166197591</v>
       </c>
       <c r="L19" t="n">
-        <v>2.612839282071829</v>
+        <v>0.1818232935581822</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6867431936612731</v>
+        <v>0.2502381978696685</v>
       </c>
       <c r="N19" t="n">
-        <v>1.014467133375262</v>
+        <v>1.013220196353817</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7159792731698229</v>
+        <v>0.2608913560174613</v>
       </c>
       <c r="P19" t="n">
-        <v>283.5031794599875</v>
+        <v>87.54136809303562</v>
       </c>
       <c r="Q19" t="n">
-        <v>455.3646707664037</v>
+        <v>137.5152769126319</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_2</t>
+          <t>model_4_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9286243849221886</v>
+        <v>0.9906793726568466</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7151811953057712</v>
+        <v>0.7481044395120753</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9753424949534071</v>
+        <v>0.8868971721638491</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3399597230159233</v>
+        <v>0.9911235445369381</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8478246207473488</v>
+        <v>0.9756901048438859</v>
       </c>
       <c r="G20" t="n">
-        <v>0.477289066679813</v>
+        <v>0.06232707796120926</v>
       </c>
       <c r="H20" t="n">
-        <v>1.904584658460313</v>
+        <v>1.684426772855158</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2619170725726085</v>
+        <v>0.2069555709701301</v>
       </c>
       <c r="J20" t="n">
-        <v>2.49547636231638</v>
+        <v>0.08189625987148434</v>
       </c>
       <c r="K20" t="n">
-        <v>1.378696717444495</v>
+        <v>0.1444259811848591</v>
       </c>
       <c r="L20" t="n">
-        <v>2.597969383790412</v>
+        <v>0.181526753978645</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6908611052011924</v>
+        <v>0.2496539163746671</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014641151810833</v>
+        <v>1.013158532719746</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7202724927292485</v>
+        <v>0.2602822004495882</v>
       </c>
       <c r="P20" t="n">
-        <v>283.4792659236653</v>
+        <v>87.5507186187898</v>
       </c>
       <c r="Q20" t="n">
-        <v>455.3407572300816</v>
+        <v>137.524627438386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_1</t>
+          <t>model_4_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9275408028483593</v>
+        <v>0.9907042679449429</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7134546116761067</v>
+        <v>0.7478076912796345</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9751982537426408</v>
+        <v>0.8918182912126624</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3423512305811963</v>
+        <v>0.9914379153195233</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8482390259404239</v>
+        <v>0.9766920377221739</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4845349849969461</v>
+        <v>0.06216060305507698</v>
       </c>
       <c r="H21" t="n">
-        <v>1.916130331142067</v>
+        <v>1.68641112965189</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2634492322780147</v>
+        <v>0.1979509066125372</v>
       </c>
       <c r="J21" t="n">
-        <v>2.486434564705621</v>
+        <v>0.07899580130288802</v>
       </c>
       <c r="K21" t="n">
-        <v>1.374942239668979</v>
+        <v>0.1384734611061477</v>
       </c>
       <c r="L21" t="n">
-        <v>2.581005743705179</v>
+        <v>0.1820643532149668</v>
       </c>
       <c r="M21" t="n">
-        <v>0.696085472479455</v>
+        <v>0.2493202820772449</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014863425056747</v>
+        <v>1.013123386430669</v>
       </c>
       <c r="O21" t="n">
-        <v>0.725719272138478</v>
+        <v>0.2599343626494066</v>
       </c>
       <c r="P21" t="n">
-        <v>283.4491312836044</v>
+        <v>87.5560677426231</v>
       </c>
       <c r="Q21" t="n">
-        <v>455.3106225900207</v>
+        <v>137.5299765622193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
+          <t>model_4_8_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9907070681981851</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7474726651830823</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8968110862977339</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.991765122930074</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9777149940207538</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.06214187774875274</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.688651450702187</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1888150894332823</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.07597690714889842</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1323960401142906</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1825857823377217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2492827265350585</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.013119433131974</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2598952082900386</v>
+      </c>
+      <c r="P22" t="n">
+        <v>87.55667031487572</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>137.530579134472</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_4_8_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.99068400765455</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7470948556584702</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9018572481189396</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.992105218726466</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9787561755569847</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.06229608371022482</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.691177864732921</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1795816217924183</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.07283910356970906</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1262103423152652</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.1830779983566487</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.2495918342218447</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.013151989193577</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.2602174753309925</v>
+      </c>
+      <c r="P23" t="n">
+        <v>87.55171343391751</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>137.5256222535137</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_4_8_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9906307524601509</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7466691518808637</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9069350794736202</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9924582942008601</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9798123087011866</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.06265220144038922</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.694024547853962</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1702902052345552</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.06958154643718432</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1199358164633985</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.183531218197007</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2503042177838584</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.013227172997434</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.2609601865360783</v>
+      </c>
+      <c r="P24" t="n">
+        <v>87.54031291908819</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>137.5142217386844</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_4_8_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9905425166273152</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7461899904964964</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9120179545681171</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9928243242443193</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9808792674736599</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.06324223486085023</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.697228702237562</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1609895596408362</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0662044674122681</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1135969751558293</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1839296030028165</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2514800883983665</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.013351741232026</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2621861163970338</v>
+      </c>
+      <c r="P25" t="n">
+        <v>87.5215658558193</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>137.4954746754156</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>model_4_8_0</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.9261629437697816</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7113982567505408</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9748829840254426</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.3452398828195934</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.8486569266062545</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.4937487349998527</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.929881185997969</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2667980918338904</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.475513165464941</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.371156093190961</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.561659525459706</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7026725659934737</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.015146062816455</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.7325867918605519</v>
-      </c>
-      <c r="P22" t="n">
-        <v>283.4114570495914</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>455.2729483560076</v>
+      <c r="B26" t="n">
+        <v>0.990413741294809</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7456510532586007</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9170756953565689</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.993203026502994</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9819521800008955</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.06410335610227511</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.700832578028947</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1517349048040066</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.06271047155779709</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1072227623722522</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1842692167978338</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2531864058401934</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.013533541701446</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.2639650753049232</v>
+      </c>
+      <c r="P26" t="n">
+        <v>87.49451711827265</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>137.4684259378689</v>
       </c>
     </row>
   </sheetData>
